--- a/pp_hadron/expdata/10003.xlsx
+++ b/pp_hadron/expdata/10003.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17540"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>pion_+-</t>
   </si>
   <si>
-    <t>dN/N_inel-dy-dpT</t>
+    <t>d2N/N_inel-dy-dpt</t>
   </si>
   <si>
     <t>pb</t>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,6 +95,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -102,24 +110,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -149,18 +164,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,54 +209,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +220,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -248,7 +248,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,67 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,25 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,73 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,17 +442,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,41 +481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,11 +510,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,159 +544,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3356,13 +3353,13 @@
       <c r="E50" s="2">
         <v>5020</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>8</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>9</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>8.5</v>
       </c>
       <c r="I50" s="2">
@@ -3377,13 +3374,13 @@
       <c r="L50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="2">
         <v>9.9951e-5</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="2">
         <v>2.3289e-6</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="2">
         <v>2.8963e-6</v>
       </c>
     </row>
@@ -3403,13 +3400,13 @@
       <c r="E51" s="2">
         <v>5020</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>9</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>10</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>9.5</v>
       </c>
       <c r="I51" s="2">
@@ -3424,13 +3421,13 @@
       <c r="L51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="2">
         <v>5.5556e-5</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="2">
         <v>1.6968e-6</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="2">
         <v>1.6103e-6</v>
       </c>
     </row>
@@ -3450,13 +3447,13 @@
       <c r="E52" s="2">
         <v>5020</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>10</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>11</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>10.5</v>
       </c>
       <c r="I52" s="2">
@@ -3471,13 +3468,13 @@
       <c r="L52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="2">
         <v>3.2919e-5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="2">
         <v>1.3183e-6</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="2">
         <v>1.1125e-6</v>
       </c>
     </row>
@@ -3497,13 +3494,13 @@
       <c r="E53" s="2">
         <v>5020</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>11</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>12</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>11.5</v>
       </c>
       <c r="I53" s="2">
@@ -3518,13 +3515,13 @@
       <c r="L53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="2">
         <v>2.1292e-5</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="2">
         <v>1.0638e-6</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="2">
         <v>7.1938e-7</v>
       </c>
     </row>
@@ -3544,13 +3541,13 @@
       <c r="E54" s="2">
         <v>5020</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>12</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <v>13</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="2">
         <v>12.5</v>
       </c>
       <c r="I54" s="2">
@@ -3565,13 +3562,13 @@
       <c r="L54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="2">
         <v>1.3258e-5</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="2">
         <v>8.1311e-7</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="2">
         <v>4.4895e-7</v>
       </c>
     </row>
@@ -3591,13 +3588,13 @@
       <c r="E55" s="2">
         <v>5020</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>13</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>14</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>13.5</v>
       </c>
       <c r="I55" s="2">
@@ -3612,13 +3609,13 @@
       <c r="L55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="2">
         <v>9.2868e-6</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55" s="2">
         <v>7.2847e-7</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O55" s="2">
         <v>3.1516e-7</v>
       </c>
     </row>
@@ -3638,13 +3635,13 @@
       <c r="E56" s="2">
         <v>5020</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>14</v>
       </c>
-      <c r="G56" s="3">
-        <v>15</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="G56" s="2">
+        <v>15</v>
+      </c>
+      <c r="H56" s="2">
         <v>14.5</v>
       </c>
       <c r="I56" s="2">
@@ -3659,13 +3656,13 @@
       <c r="L56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="2">
         <v>6.6406e-6</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="2">
         <v>6.0232e-7</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56" s="2">
         <v>2.2501e-7</v>
       </c>
     </row>
@@ -3685,13 +3682,13 @@
       <c r="E57" s="2">
         <v>5020</v>
       </c>
-      <c r="F57" s="3">
-        <v>15</v>
-      </c>
-      <c r="G57" s="3">
-        <v>16</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="F57" s="2">
+        <v>15</v>
+      </c>
+      <c r="G57" s="2">
+        <v>16</v>
+      </c>
+      <c r="H57" s="2">
         <v>15.5</v>
       </c>
       <c r="I57" s="2">
@@ -3706,13 +3703,13 @@
       <c r="L57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="2">
         <v>4.2808e-6</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="2">
         <v>4.9218e-7</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="2">
         <v>1.4505e-7</v>
       </c>
     </row>
@@ -3732,13 +3729,13 @@
       <c r="E58" s="2">
         <v>5020</v>
       </c>
-      <c r="F58" s="3">
-        <v>16</v>
-      </c>
-      <c r="G58" s="3">
-        <v>18</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="F58" s="2">
+        <v>16</v>
+      </c>
+      <c r="G58" s="2">
+        <v>18</v>
+      </c>
+      <c r="H58" s="2">
         <v>17</v>
       </c>
       <c r="I58" s="2">
@@ -3753,13 +3750,13 @@
       <c r="L58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="2">
         <v>2.849e-6</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="2">
         <v>2.7311e-7</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="2">
         <v>9.7074e-8</v>
       </c>
     </row>
@@ -3779,13 +3776,13 @@
       <c r="E59" s="2">
         <v>5020</v>
       </c>
-      <c r="F59" s="3">
-        <v>18</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="F59" s="2">
+        <v>18</v>
+      </c>
+      <c r="G59" s="2">
         <v>20</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <v>19</v>
       </c>
       <c r="I59" s="2">
@@ -3800,13 +3797,13 @@
       <c r="L59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="2">
         <v>1.6493e-6</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="2">
         <v>2.4647e-7</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="2">
         <v>5.5884e-8</v>
       </c>
     </row>
